--- a/hola/nombre.xlsx
+++ b/hola/nombre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usach\Documents\hola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6962CCD-CFE3-42F8-A25C-AF9C45E40427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BCD0C-A59D-4198-90E4-024A2E160CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Seccion</t>
   </si>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +424,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -432,6 +435,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -451,6 +457,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -459,6 +468,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
